--- a/generated_docs/WR_89700661_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89700661_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/18/2025 to 07/20/25</t>
+          <t>07/14/2025 to 07/20/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>709-1</t>
+          <t>709-2</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89700661_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89700661_WeekEnding_072025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I81"/>
+  <dimension ref="A2:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>12368.09</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>57.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>646.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>285.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>510.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>485.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>418.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>491.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>285.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>26.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="H30" s="16" t="n">
-        <v>4967.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="11" t="n">
-        <v>652.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G36" s="13" t="inlineStr"/>
       <c r="H36" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="G37" s="10" t="inlineStr"/>
       <c r="H37" s="11" t="n">
-        <v>200.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="G38" s="13" t="inlineStr"/>
       <c r="H38" s="14" t="n">
-        <v>85.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="G39" s="10" t="inlineStr"/>
       <c r="H39" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="G40" s="13" t="inlineStr"/>
       <c r="H40" s="14" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="11" t="n">
-        <v>95.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="G42" s="13" t="inlineStr"/>
       <c r="H42" s="14" t="n">
-        <v>52.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="G43" s="10" t="inlineStr"/>
       <c r="H43" s="11" t="n">
-        <v>49.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="G44" s="13" t="inlineStr"/>
       <c r="H44" s="14" t="n">
-        <v>26.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="G45" s="10" t="inlineStr"/>
       <c r="H45" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="G46" s="13" t="inlineStr"/>
       <c r="H46" s="14" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B47" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C47" s="9" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="D47" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E47" s="9" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="G47" s="10" t="inlineStr"/>
       <c r="H47" s="11" t="n">
-        <v>82.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B48" s="12" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C48" s="12" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D48" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E48" s="12" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="G48" s="13" t="inlineStr"/>
       <c r="H48" s="14" t="n">
-        <v>18.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B49" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C49" s="9" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D49" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E49" s="9" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>858.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1787,17 +1787,17 @@
       </c>
       <c r="B50" s="12" t="inlineStr">
         <is>
-          <t>EQL-3-4-C-10-S-X</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C50" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D50" s="12" t="inlineStr">
         <is>
-          <t>EQL,3 Ph,#4,CU Sol,1/0,CU Str,Xfr</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E50" s="12" t="inlineStr">
@@ -1806,11 +1806,11 @@
         </is>
       </c>
       <c r="F50" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>670</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1821,17 +1821,17 @@
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>EQL-3-4-C-10-S-X</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>EQL,3 Ph,#4,CU Sol,1/0,CU Str,Xfr</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1840,11 +1840,11 @@
         </is>
       </c>
       <c r="F51" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>EQL-3-4-C-10-S-X</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>EQL,3 Ph,#4,CU Sol,1/0,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>EQL-3-4-C-10-S-X</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="D53" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>EQL,3 Ph,#4,CU Sol,1/0,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E53" s="9" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
@@ -1942,11 +1942,11 @@
         </is>
       </c>
       <c r="F54" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>158.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1957,17 +1957,17 @@
       </c>
       <c r="B55" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C55" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D55" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E55" s="9" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B56" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C56" s="12" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E56" s="12" t="inlineStr">
@@ -2010,11 +2010,11 @@
         </is>
       </c>
       <c r="F56" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYF-38-78W-IL-C</t>
         </is>
       </c>
       <c r="C57" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D57" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYF,3/8,78"WireMt,Insltr&amp;Link Adder,Corr</t>
         </is>
       </c>
       <c r="E57" s="9" t="inlineStr">
@@ -2044,11 +2044,11 @@
         </is>
       </c>
       <c r="F57" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B58" s="12" t="inlineStr">
         <is>
-          <t>SAA-DI-10-C</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C58" s="12" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>SAA,Dead End I Bolt,1/0,Corr</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E58" s="12" t="inlineStr">
@@ -2078,11 +2078,11 @@
         </is>
       </c>
       <c r="F58" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="13" t="inlineStr"/>
       <c r="H58" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>SAA-DI-40-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="D59" s="9" t="inlineStr">
         <is>
-          <t>SAA,Dead End I Bolt,4/0,Corr</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E59" s="9" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B60" s="12" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C60" s="12" t="inlineStr">
@@ -2137,20 +2137,20 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E60" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F60" s="13" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="G60" s="13" t="inlineStr"/>
       <c r="H60" s="14" t="n">
-        <v>187.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2161,17 +2161,17 @@
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D61" s="9" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E61" s="9" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="G61" s="10" t="inlineStr"/>
       <c r="H61" s="11" t="n">
-        <v>79.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2195,17 +2195,17 @@
       </c>
       <c r="B62" s="12" t="inlineStr">
         <is>
-          <t>XFR-50-72-240-2B-S</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C62" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D62" s="12" t="inlineStr">
         <is>
-          <t>XFR,50KVA,7.2/12.4kVY,240/480,2BG,SS</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E62" s="12" t="inlineStr">
@@ -2214,22 +2214,22 @@
         </is>
       </c>
       <c r="F62" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62" s="13" t="inlineStr"/>
       <c r="H62" s="14" t="n">
-        <v>609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D63" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E63" s="9" t="inlineStr">
@@ -2248,32 +2248,32 @@
         </is>
       </c>
       <c r="F63" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="10" t="inlineStr"/>
       <c r="H63" s="11" t="n">
-        <v>71.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B64" s="12" t="inlineStr">
         <is>
-          <t>POL-45-4</t>
+          <t>PLD-EYE-ARM-C</t>
         </is>
       </c>
       <c r="C64" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 4</t>
+          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
         </is>
       </c>
       <c r="E64" s="12" t="inlineStr">
@@ -2282,32 +2282,32 @@
         </is>
       </c>
       <c r="F64" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="13" t="inlineStr"/>
       <c r="H64" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>SAA-DI-2-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D65" s="9" t="inlineStr">
         <is>
-          <t>SAA,Dead End Clamp I Bolt,2,Corr</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E65" s="9" t="inlineStr">
@@ -2316,32 +2316,32 @@
         </is>
       </c>
       <c r="F65" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B66" s="12" t="inlineStr">
         <is>
-          <t>SAA-DI-4-C</t>
+          <t>SAA-DI-10-C</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>SAA,Dead End I Bolt,4,Corr</t>
+          <t>SAA,Dead End I Bolt,1/0,Corr</t>
         </is>
       </c>
       <c r="E66" s="12" t="inlineStr">
@@ -2354,28 +2354,28 @@
       </c>
       <c r="G66" s="13" t="inlineStr"/>
       <c r="H66" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>ARM-4S-GN-C</t>
+          <t>SAA-DI-40-C</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>ARM,4.5ft Single Wood,Gain,Corr</t>
+          <t>SAA,Dead End I Bolt,4/0,Corr</t>
         </is>
       </c>
       <c r="E67" s="9" t="inlineStr">
@@ -2388,28 +2388,28 @@
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B68" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>TIE-4-CUH-15</t>
         </is>
       </c>
       <c r="C68" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>TIE,4 AWG,CU Hand Tie,15kV (F Neck)</t>
         </is>
       </c>
       <c r="E68" s="12" t="inlineStr">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="F68" s="13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G68" s="13" t="inlineStr"/>
       <c r="H68" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>TIE-4-CUH-15</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>TIE,4 AWG,CU Hand Tie,15kV (F Neck)</t>
         </is>
       </c>
       <c r="E69" s="9" t="inlineStr">
@@ -2452,32 +2452,32 @@
         </is>
       </c>
       <c r="F69" s="10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G69" s="10" t="inlineStr"/>
       <c r="H69" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B70" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C70" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E70" s="12" t="inlineStr">
@@ -2486,22 +2486,22 @@
         </is>
       </c>
       <c r="F70" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G70" s="13" t="inlineStr"/>
       <c r="H70" s="14" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2520,32 +2520,32 @@
         </is>
       </c>
       <c r="F71" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G71" s="10" t="inlineStr"/>
       <c r="H71" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B72" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>XFR-50-72-240-2B-S</t>
         </is>
       </c>
       <c r="C72" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>XFR,50KVA,7.2/12.4kVY,240/480,2BG,SS</t>
         </is>
       </c>
       <c r="E72" s="12" t="inlineStr">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="F72" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G72" s="13" t="inlineStr"/>
       <c r="H72" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
-          <t>ARM-3SF-GN-C</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C73" s="9" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E73" s="9" t="inlineStr">
@@ -2588,22 +2588,22 @@
         </is>
       </c>
       <c r="F73" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" s="10" t="inlineStr"/>
       <c r="H73" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B74" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>GYF-38-78W-I-C</t>
         </is>
       </c>
       <c r="C74" s="12" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="D74" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
         </is>
       </c>
       <c r="E74" s="12" t="inlineStr">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="F74" s="13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G74" s="13" t="inlineStr"/>
       <c r="H74" s="14" t="n">
-        <v>570.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C75" s="9" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="D75" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E75" s="9" t="inlineStr">
@@ -2656,22 +2656,22 @@
         </is>
       </c>
       <c r="F75" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75" s="10" t="inlineStr"/>
       <c r="H75" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B76" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C76" s="12" t="inlineStr">
@@ -2681,31 +2681,31 @@
       </c>
       <c r="D76" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E76" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F76" s="13" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G76" s="13" t="inlineStr"/>
       <c r="H76" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B77" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C77" s="9" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="D77" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E77" s="9" t="inlineStr">
@@ -2724,22 +2724,22 @@
         </is>
       </c>
       <c r="F77" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G77" s="10" t="inlineStr"/>
       <c r="H77" s="11" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B78" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>PLD-EYE-ARM-C</t>
         </is>
       </c>
       <c r="C78" s="12" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D78" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
         </is>
       </c>
       <c r="E78" s="12" t="inlineStr">
@@ -2758,22 +2758,22 @@
         </is>
       </c>
       <c r="F78" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" s="13" t="inlineStr"/>
       <c r="H78" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B79" s="9" t="inlineStr">
         <is>
-          <t>SAA-DI-2-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C79" s="9" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="D79" s="9" t="inlineStr">
         <is>
-          <t>SAA,Dead End Clamp I Bolt,2,Corr</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E79" s="9" t="inlineStr">
@@ -2792,32 +2792,32 @@
         </is>
       </c>
       <c r="F79" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79" s="10" t="inlineStr"/>
       <c r="H79" s="11" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B80" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>POL-45-4</t>
         </is>
       </c>
       <c r="C80" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D80" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pole,45ft,Class 4</t>
         </is>
       </c>
       <c r="E80" s="12" t="inlineStr">
@@ -2830,21 +2830,736 @@
       </c>
       <c r="G80" s="13" t="inlineStr"/>
       <c r="H80" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="15" t="inlineStr">
+      <c r="A81" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B81" s="9" t="inlineStr">
+        <is>
+          <t>SAA-DI-2-C</t>
+        </is>
+      </c>
+      <c r="C81" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D81" s="9" t="inlineStr">
+        <is>
+          <t>SAA,Dead End Clamp I Bolt,2,Corr</t>
+        </is>
+      </c>
+      <c r="E81" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F81" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="10" t="inlineStr"/>
+      <c r="H81" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B82" s="12" t="inlineStr">
+        <is>
+          <t>SAA-DI-4-C</t>
+        </is>
+      </c>
+      <c r="C82" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D82" s="12" t="inlineStr">
+        <is>
+          <t>SAA,Dead End I Bolt,4,Corr</t>
+        </is>
+      </c>
+      <c r="E82" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F82" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="13" t="inlineStr"/>
+      <c r="H82" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B83" s="9" t="inlineStr">
+        <is>
+          <t>ARM-4S-GN-C</t>
+        </is>
+      </c>
+      <c r="C83" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D83" s="9" t="inlineStr">
+        <is>
+          <t>ARM,4.5ft Single Wood,Gain,Corr</t>
+        </is>
+      </c>
+      <c r="E83" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F83" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="10" t="inlineStr"/>
+      <c r="H83" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B84" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C84" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D84" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E84" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F84" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" s="13" t="inlineStr"/>
+      <c r="H84" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B85" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C85" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D85" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E85" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F85" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="10" t="inlineStr"/>
+      <c r="H85" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B86" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C86" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D86" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E86" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F86" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G86" s="13" t="inlineStr"/>
+      <c r="H86" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B87" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C87" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D87" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E87" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F87" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="10" t="inlineStr"/>
+      <c r="H87" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B88" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C88" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D88" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E88" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F88" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="13" t="inlineStr"/>
+      <c r="H88" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B89" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C89" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D89" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E89" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F89" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G89" s="10" t="inlineStr"/>
+      <c r="H89" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B90" s="12" t="inlineStr">
+        <is>
+          <t>ARM-3SF-GN-C</t>
+        </is>
+      </c>
+      <c r="C90" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D90" s="12" t="inlineStr">
+        <is>
+          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
+        </is>
+      </c>
+      <c r="E90" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F90" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="13" t="inlineStr"/>
+      <c r="H90" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B91" s="9" t="inlineStr">
+        <is>
+          <t>DEC-20AL-C</t>
+        </is>
+      </c>
+      <c r="C91" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D91" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E91" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F91" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G91" s="10" t="inlineStr"/>
+      <c r="H91" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B92" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C92" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D92" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E92" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F92" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G92" s="13" t="inlineStr"/>
+      <c r="H92" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B93" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C93" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D93" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E93" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F93" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G93" s="10" t="inlineStr"/>
+      <c r="H93" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B94" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C94" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D94" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E94" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F94" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" s="13" t="inlineStr"/>
+      <c r="H94" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B95" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C95" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D95" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E95" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F95" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G95" s="10" t="inlineStr"/>
+      <c r="H95" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B96" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-ARM-C</t>
+        </is>
+      </c>
+      <c r="C96" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D96" s="12" t="inlineStr">
+        <is>
+          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
+        </is>
+      </c>
+      <c r="E96" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F96" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G96" s="13" t="inlineStr"/>
+      <c r="H96" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B97" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C97" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D97" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E97" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F97" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G97" s="10" t="inlineStr"/>
+      <c r="H97" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B98" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C98" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D98" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E98" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F98" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" s="13" t="inlineStr"/>
+      <c r="H98" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B99" s="9" t="inlineStr">
+        <is>
+          <t>SAA-DI-2-C</t>
+        </is>
+      </c>
+      <c r="C99" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D99" s="9" t="inlineStr">
+        <is>
+          <t>SAA,Dead End Clamp I Bolt,2,Corr</t>
+        </is>
+      </c>
+      <c r="E99" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F99" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G99" s="10" t="inlineStr"/>
+      <c r="H99" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B100" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C100" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D100" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E100" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F100" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G100" s="13" t="inlineStr"/>
+      <c r="H100" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B101" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C101" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D101" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E101" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F101" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="10" t="inlineStr"/>
+      <c r="H101" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H81" s="16" t="n">
-        <v>7400.849999999999</v>
+      <c r="H102" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A102:G102"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
@@ -2856,7 +3571,6 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A81:G81"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>

--- a/generated_docs/WR_89700661_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89700661_WeekEnding_072025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I102"/>
+  <dimension ref="A2:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>12368.09</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P38</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>646.35</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>285.45</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>510.57</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>485.46</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1033,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>418.5</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1067,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>491.04</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1101,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>285.45</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1169,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1203,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="30">
@@ -1217,7 +1213,7 @@
         </is>
       </c>
       <c r="H30" s="16" t="n">
-        <v>0</v>
+        <v>4967.24</v>
       </c>
     </row>
     <row r="33">
@@ -1300,7 +1296,7 @@
       </c>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="11" t="n">
-        <v>0</v>
+        <v>652.59</v>
       </c>
     </row>
     <row r="36">
@@ -1334,7 +1330,7 @@
       </c>
       <c r="G36" s="13" t="inlineStr"/>
       <c r="H36" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="37">
@@ -1368,7 +1364,7 @@
       </c>
       <c r="G37" s="10" t="inlineStr"/>
       <c r="H37" s="11" t="n">
-        <v>0</v>
+        <v>200.16</v>
       </c>
     </row>
     <row r="38">
@@ -1402,7 +1398,7 @@
       </c>
       <c r="G38" s="13" t="inlineStr"/>
       <c r="H38" s="14" t="n">
-        <v>0</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="39">
@@ -1436,7 +1432,7 @@
       </c>
       <c r="G39" s="10" t="inlineStr"/>
       <c r="H39" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="40">
@@ -1470,7 +1466,7 @@
       </c>
       <c r="G40" s="13" t="inlineStr"/>
       <c r="H40" s="14" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="41">
@@ -1504,7 +1500,7 @@
       </c>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="11" t="n">
-        <v>0</v>
+        <v>95.16</v>
       </c>
     </row>
     <row r="42">
@@ -1538,7 +1534,7 @@
       </c>
       <c r="G42" s="13" t="inlineStr"/>
       <c r="H42" s="14" t="n">
-        <v>0</v>
+        <v>52.11</v>
       </c>
     </row>
     <row r="43">
@@ -1572,7 +1568,7 @@
       </c>
       <c r="G43" s="10" t="inlineStr"/>
       <c r="H43" s="11" t="n">
-        <v>0</v>
+        <v>49.01</v>
       </c>
     </row>
     <row r="44">
@@ -1606,7 +1602,7 @@
       </c>
       <c r="G44" s="13" t="inlineStr"/>
       <c r="H44" s="14" t="n">
-        <v>0</v>
+        <v>26.73</v>
       </c>
     </row>
     <row r="45">
@@ -1640,7 +1636,7 @@
       </c>
       <c r="G45" s="10" t="inlineStr"/>
       <c r="H45" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="46">
@@ -1674,7 +1670,7 @@
       </c>
       <c r="G46" s="13" t="inlineStr"/>
       <c r="H46" s="14" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="47">
@@ -1685,7 +1681,7 @@
       </c>
       <c r="B47" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C47" s="9" t="inlineStr">
@@ -1695,7 +1691,7 @@
       </c>
       <c r="D47" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E47" s="9" t="inlineStr">
@@ -1708,7 +1704,7 @@
       </c>
       <c r="G47" s="10" t="inlineStr"/>
       <c r="H47" s="11" t="n">
-        <v>0</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="48">
@@ -1719,7 +1715,7 @@
       </c>
       <c r="B48" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C48" s="12" t="inlineStr">
@@ -1729,7 +1725,7 @@
       </c>
       <c r="D48" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E48" s="12" t="inlineStr">
@@ -1742,7 +1738,7 @@
       </c>
       <c r="G48" s="13" t="inlineStr"/>
       <c r="H48" s="14" t="n">
-        <v>0</v>
+        <v>18.51</v>
       </c>
     </row>
     <row r="49">
@@ -1753,7 +1749,7 @@
       </c>
       <c r="B49" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C49" s="9" t="inlineStr">
@@ -1763,7 +1759,7 @@
       </c>
       <c r="D49" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E49" s="9" t="inlineStr">
@@ -1776,7 +1772,7 @@
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>0</v>
+        <v>858.75</v>
       </c>
     </row>
     <row r="50">
@@ -1787,17 +1783,17 @@
       </c>
       <c r="B50" s="12" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>EQL-3-4-C-10-S-X</t>
         </is>
       </c>
       <c r="C50" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D50" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>EQL,3 Ph,#4,CU Sol,1/0,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E50" s="12" t="inlineStr">
@@ -1806,11 +1802,11 @@
         </is>
       </c>
       <c r="F50" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>0</v>
+        <v>670</v>
       </c>
     </row>
     <row r="51">
@@ -1821,17 +1817,17 @@
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>EQL-3-4-C-10-S-X</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>EQL,3 Ph,#4,CU Sol,1/0,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1840,11 +1836,11 @@
         </is>
       </c>
       <c r="F51" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52">
@@ -1855,7 +1851,7 @@
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>EQL-3-4-C-10-S-X</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
@@ -1865,7 +1861,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>EQL,3 Ph,#4,CU Sol,1/0,CU Str,Xfr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1878,7 +1874,7 @@
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="53">
@@ -1889,7 +1885,7 @@
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>EQL-3-4-C-10-S-X</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
@@ -1899,7 +1895,7 @@
       </c>
       <c r="D53" s="9" t="inlineStr">
         <is>
-          <t>EQL,3 Ph,#4,CU Sol,1/0,CU Str,Xfr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E53" s="9" t="inlineStr">
@@ -1912,7 +1908,7 @@
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>0</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="54">
@@ -1923,7 +1919,7 @@
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
@@ -1933,7 +1929,7 @@
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
@@ -1942,11 +1938,11 @@
         </is>
       </c>
       <c r="F54" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>0</v>
+        <v>158.7</v>
       </c>
     </row>
     <row r="55">
@@ -1957,17 +1953,17 @@
       </c>
       <c r="B55" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C55" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D55" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E55" s="9" t="inlineStr">
@@ -1980,7 +1976,7 @@
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>0</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -1991,7 +1987,7 @@
       </c>
       <c r="B56" s="12" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C56" s="12" t="inlineStr">
@@ -2001,7 +1997,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E56" s="12" t="inlineStr">
@@ -2010,11 +2006,11 @@
         </is>
       </c>
       <c r="F56" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="57">
@@ -2025,17 +2021,17 @@
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-78W-IL-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C57" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D57" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,78"WireMt,Insltr&amp;Link Adder,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E57" s="9" t="inlineStr">
@@ -2044,11 +2040,11 @@
         </is>
       </c>
       <c r="F57" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="58">
@@ -2059,7 +2055,7 @@
       </c>
       <c r="B58" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>SAA-DI-10-C</t>
         </is>
       </c>
       <c r="C58" s="12" t="inlineStr">
@@ -2069,7 +2065,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>SAA,Dead End I Bolt,1/0,Corr</t>
         </is>
       </c>
       <c r="E58" s="12" t="inlineStr">
@@ -2078,11 +2074,11 @@
         </is>
       </c>
       <c r="F58" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="13" t="inlineStr"/>
       <c r="H58" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="59">
@@ -2093,7 +2089,7 @@
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>SAA-DI-40-C</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
@@ -2103,7 +2099,7 @@
       </c>
       <c r="D59" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>SAA,Dead End I Bolt,4/0,Corr</t>
         </is>
       </c>
       <c r="E59" s="9" t="inlineStr">
@@ -2116,7 +2112,7 @@
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="60">
@@ -2127,7 +2123,7 @@
       </c>
       <c r="B60" s="12" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C60" s="12" t="inlineStr">
@@ -2137,20 +2133,20 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E60" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F60" s="13" t="n">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="G60" s="13" t="inlineStr"/>
       <c r="H60" s="14" t="n">
-        <v>0</v>
+        <v>187.26</v>
       </c>
     </row>
     <row r="61">
@@ -2161,17 +2157,17 @@
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D61" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E61" s="9" t="inlineStr">
@@ -2184,7 +2180,7 @@
       </c>
       <c r="G61" s="10" t="inlineStr"/>
       <c r="H61" s="11" t="n">
-        <v>0</v>
+        <v>79.56</v>
       </c>
     </row>
     <row r="62">
@@ -2195,17 +2191,17 @@
       </c>
       <c r="B62" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>XFR-50-72-240-2B-S</t>
         </is>
       </c>
       <c r="C62" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D62" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>XFR,50KVA,7.2/12.4kVY,240/480,2BG,SS</t>
         </is>
       </c>
       <c r="E62" s="12" t="inlineStr">
@@ -2214,22 +2210,22 @@
         </is>
       </c>
       <c r="F62" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G62" s="13" t="inlineStr"/>
       <c r="H62" s="14" t="n">
-        <v>0</v>
+        <v>609</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
@@ -2239,7 +2235,7 @@
       </c>
       <c r="D63" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E63" s="9" t="inlineStr">
@@ -2248,32 +2244,32 @@
         </is>
       </c>
       <c r="F63" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="10" t="inlineStr"/>
       <c r="H63" s="11" t="n">
-        <v>0</v>
+        <v>71.16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B64" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE-ARM-C</t>
+          <t>POL-45-4</t>
         </is>
       </c>
       <c r="C64" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
+          <t>Pole,45ft,Class 4</t>
         </is>
       </c>
       <c r="E64" s="12" t="inlineStr">
@@ -2282,32 +2278,32 @@
         </is>
       </c>
       <c r="F64" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" s="13" t="inlineStr"/>
       <c r="H64" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>SAA-DI-2-C</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D65" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>SAA,Dead End Clamp I Bolt,2,Corr</t>
         </is>
       </c>
       <c r="E65" s="9" t="inlineStr">
@@ -2316,32 +2312,32 @@
         </is>
       </c>
       <c r="F65" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B66" s="12" t="inlineStr">
         <is>
-          <t>SAA-DI-10-C</t>
+          <t>SAA-DI-4-C</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>SAA,Dead End I Bolt,1/0,Corr</t>
+          <t>SAA,Dead End I Bolt,4,Corr</t>
         </is>
       </c>
       <c r="E66" s="12" t="inlineStr">
@@ -2354,28 +2350,28 @@
       </c>
       <c r="G66" s="13" t="inlineStr"/>
       <c r="H66" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>SAA-DI-40-C</t>
+          <t>ARM-4S-GN-C</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>SAA,Dead End I Bolt,4/0,Corr</t>
+          <t>ARM,4.5ft Single Wood,Gain,Corr</t>
         </is>
       </c>
       <c r="E67" s="9" t="inlineStr">
@@ -2388,28 +2384,28 @@
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B68" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-CUH-15</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C68" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,CU Hand Tie,15kV (F Neck)</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E68" s="12" t="inlineStr">
@@ -2418,22 +2414,22 @@
         </is>
       </c>
       <c r="F68" s="13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G68" s="13" t="inlineStr"/>
       <c r="H68" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-CUH-15</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
@@ -2443,7 +2439,7 @@
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,CU Hand Tie,15kV (F Neck)</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E69" s="9" t="inlineStr">
@@ -2452,32 +2448,32 @@
         </is>
       </c>
       <c r="F69" s="10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G69" s="10" t="inlineStr"/>
       <c r="H69" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B70" s="12" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C70" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E70" s="12" t="inlineStr">
@@ -2486,22 +2482,22 @@
         </is>
       </c>
       <c r="F70" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G70" s="13" t="inlineStr"/>
       <c r="H70" s="14" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
@@ -2511,7 +2507,7 @@
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2520,32 +2516,32 @@
         </is>
       </c>
       <c r="F71" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G71" s="10" t="inlineStr"/>
       <c r="H71" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B72" s="12" t="inlineStr">
         <is>
-          <t>XFR-50-72-240-2B-S</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C72" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>XFR,50KVA,7.2/12.4kVY,240/480,2BG,SS</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E72" s="12" t="inlineStr">
@@ -2554,22 +2550,22 @@
         </is>
       </c>
       <c r="F72" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G72" s="13" t="inlineStr"/>
       <c r="H72" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>ARM-3SF-GN-C</t>
         </is>
       </c>
       <c r="C73" s="9" t="inlineStr">
@@ -2579,7 +2575,7 @@
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
         </is>
       </c>
       <c r="E73" s="9" t="inlineStr">
@@ -2588,22 +2584,22 @@
         </is>
       </c>
       <c r="F73" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" s="10" t="inlineStr"/>
       <c r="H73" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B74" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-78W-I-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C74" s="12" t="inlineStr">
@@ -2613,7 +2609,7 @@
       </c>
       <c r="D74" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E74" s="12" t="inlineStr">
@@ -2622,22 +2618,22 @@
         </is>
       </c>
       <c r="F74" s="13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G74" s="13" t="inlineStr"/>
       <c r="H74" s="14" t="n">
-        <v>0</v>
+        <v>570.9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C75" s="9" t="inlineStr">
@@ -2647,7 +2643,7 @@
       </c>
       <c r="D75" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E75" s="9" t="inlineStr">
@@ -2656,22 +2652,22 @@
         </is>
       </c>
       <c r="F75" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75" s="10" t="inlineStr"/>
       <c r="H75" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B76" s="12" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C76" s="12" t="inlineStr">
@@ -2681,31 +2677,31 @@
       </c>
       <c r="D76" s="12" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E76" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F76" s="13" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G76" s="13" t="inlineStr"/>
       <c r="H76" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B77" s="9" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C77" s="9" t="inlineStr">
@@ -2715,7 +2711,7 @@
       </c>
       <c r="D77" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E77" s="9" t="inlineStr">
@@ -2724,22 +2720,22 @@
         </is>
       </c>
       <c r="F77" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77" s="10" t="inlineStr"/>
       <c r="H77" s="11" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B78" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE-ARM-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C78" s="12" t="inlineStr">
@@ -2749,7 +2745,7 @@
       </c>
       <c r="D78" s="12" t="inlineStr">
         <is>
-          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E78" s="12" t="inlineStr">
@@ -2758,22 +2754,22 @@
         </is>
       </c>
       <c r="F78" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" s="13" t="inlineStr"/>
       <c r="H78" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B79" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>SAA-DI-2-C</t>
         </is>
       </c>
       <c r="C79" s="9" t="inlineStr">
@@ -2783,7 +2779,7 @@
       </c>
       <c r="D79" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>SAA,Dead End Clamp I Bolt,2,Corr</t>
         </is>
       </c>
       <c r="E79" s="9" t="inlineStr">
@@ -2792,32 +2788,32 @@
         </is>
       </c>
       <c r="F79" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79" s="10" t="inlineStr"/>
       <c r="H79" s="11" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B80" s="12" t="inlineStr">
         <is>
-          <t>POL-45-4</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C80" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D80" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 4</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E80" s="12" t="inlineStr">
@@ -2830,736 +2826,21 @@
       </c>
       <c r="G80" s="13" t="inlineStr"/>
       <c r="H80" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B81" s="9" t="inlineStr">
-        <is>
-          <t>SAA-DI-2-C</t>
-        </is>
-      </c>
-      <c r="C81" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D81" s="9" t="inlineStr">
-        <is>
-          <t>SAA,Dead End Clamp I Bolt,2,Corr</t>
-        </is>
-      </c>
-      <c r="E81" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F81" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" s="10" t="inlineStr"/>
-      <c r="H81" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="12" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B82" s="12" t="inlineStr">
-        <is>
-          <t>SAA-DI-4-C</t>
-        </is>
-      </c>
-      <c r="C82" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D82" s="12" t="inlineStr">
-        <is>
-          <t>SAA,Dead End I Bolt,4,Corr</t>
-        </is>
-      </c>
-      <c r="E82" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F82" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" s="13" t="inlineStr"/>
-      <c r="H82" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B83" s="9" t="inlineStr">
-        <is>
-          <t>ARM-4S-GN-C</t>
-        </is>
-      </c>
-      <c r="C83" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D83" s="9" t="inlineStr">
-        <is>
-          <t>ARM,4.5ft Single Wood,Gain,Corr</t>
-        </is>
-      </c>
-      <c r="E83" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F83" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" s="10" t="inlineStr"/>
-      <c r="H83" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="12" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B84" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C84" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D84" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E84" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F84" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G84" s="13" t="inlineStr"/>
-      <c r="H84" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B85" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C85" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D85" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E85" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F85" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" s="10" t="inlineStr"/>
-      <c r="H85" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="12" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B86" s="12" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C86" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D86" s="12" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E86" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F86" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G86" s="13" t="inlineStr"/>
-      <c r="H86" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B87" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C87" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D87" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E87" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F87" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" s="10" t="inlineStr"/>
-      <c r="H87" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="12" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B88" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C88" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D88" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E88" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F88" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" s="13" t="inlineStr"/>
-      <c r="H88" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B89" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C89" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D89" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E89" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F89" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="G89" s="10" t="inlineStr"/>
-      <c r="H89" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B90" s="12" t="inlineStr">
-        <is>
-          <t>ARM-3SF-GN-C</t>
-        </is>
-      </c>
-      <c r="C90" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D90" s="12" t="inlineStr">
-        <is>
-          <t>ARM,3ft Sgl. Fiberglass,Gain,Corr</t>
-        </is>
-      </c>
-      <c r="E90" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F90" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" s="13" t="inlineStr"/>
-      <c r="H90" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B91" s="9" t="inlineStr">
-        <is>
-          <t>DEC-20AL-C</t>
-        </is>
-      </c>
-      <c r="C91" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D91" s="9" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E91" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F91" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G91" s="10" t="inlineStr"/>
-      <c r="H91" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B92" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C92" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D92" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E92" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F92" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G92" s="13" t="inlineStr"/>
-      <c r="H92" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B93" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C93" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D93" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E93" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F93" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G93" s="10" t="inlineStr"/>
-      <c r="H93" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B94" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C94" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D94" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E94" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F94" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" s="13" t="inlineStr"/>
-      <c r="H94" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B95" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C95" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D95" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E95" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F95" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G95" s="10" t="inlineStr"/>
-      <c r="H95" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B96" s="12" t="inlineStr">
-        <is>
-          <t>PLD-EYE-ARM-C</t>
-        </is>
-      </c>
-      <c r="C96" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D96" s="12" t="inlineStr">
-        <is>
-          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
-        </is>
-      </c>
-      <c r="E96" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F96" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G96" s="13" t="inlineStr"/>
-      <c r="H96" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B97" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE-C</t>
-        </is>
-      </c>
-      <c r="C97" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D97" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
-        </is>
-      </c>
-      <c r="E97" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F97" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G97" s="10" t="inlineStr"/>
-      <c r="H97" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B98" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C98" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D98" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E98" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F98" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" s="13" t="inlineStr"/>
-      <c r="H98" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B99" s="9" t="inlineStr">
-        <is>
-          <t>SAA-DI-2-C</t>
-        </is>
-      </c>
-      <c r="C99" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D99" s="9" t="inlineStr">
-        <is>
-          <t>SAA,Dead End Clamp I Bolt,2,Corr</t>
-        </is>
-      </c>
-      <c r="E99" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F99" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G99" s="10" t="inlineStr"/>
-      <c r="H99" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B100" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C100" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D100" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E100" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F100" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="G100" s="13" t="inlineStr"/>
-      <c r="H100" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B101" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C101" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D101" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E101" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F101" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" s="10" t="inlineStr"/>
-      <c r="H101" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="15" t="inlineStr">
+      <c r="A81" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H102" s="16" t="n">
-        <v>0</v>
+      <c r="H81" s="16" t="n">
+        <v>7400.849999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A102:G102"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
@@ -3571,6 +2852,7 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A81:G81"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
